--- a/biology/Zoologie/Grimpar_tyran/Grimpar_tyran.xlsx
+++ b/biology/Zoologie/Grimpar_tyran/Grimpar_tyran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocincla tyrannina
 Le Grimpar tyran (Dendrocincla tyrannina) est une espèce d'oiseaux de la famille des Furnariidae. Cet oiseau peuple la moitié nord des Andes.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dendrocincla tyrannina a été décrite pour la première fois en 1851 par l'ornithologue français Frédéric de Lafresnaye[3] (1783-1861) sous le protonyme Dendrocops tyranninus[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dendrocincla tyrannina a été décrite pour la première fois en 1851 par l'ornithologue français Frédéric de Lafresnaye (1783-1861) sous le protonyme Dendrocops tyranninus,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1851, l'auteur indique que cet oiseau mesure environ 25 cm de longueur totale[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1851, l'auteur indique que cet oiseau mesure environ 25 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Dendrocincla tyrannina tyrannina (Lafresnaye, 1851)
 sous-espèce Dendrocincla tyrannina hellmayri Cory, 1913</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr + la) F. de Lafresnaye, « Essai d'une monographie du genre Picucule (Buffon), Dendrocolaptes (Hermann, Illiger), devenu aujourd'hui la sous-famille Dendrocolaptinæ (Gray, Genera of birds), de la famille de Certhiadæ de Swains », Revue et magasin de zoologie pure et appliquée, Paris, Bureau de la Revue et Magasin de Zoologie, vol. 3,‎ 1851, p. 317–329 (ISSN 1259-6523 et 2540-5020, BNF 32859507, lire en ligne)</t>
         </is>
